--- a/data/CheckSum.xlsx
+++ b/data/CheckSum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8610e9849f4c2023/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{C9638ABF-71D5-43C6-828B-78DC4D46C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{303BE911-973B-4F29-9760-3E73C5FA7CA7}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{C9638ABF-71D5-43C6-828B-78DC4D46C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBCB531B-2A17-4B8A-BBD8-D99174766757}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{9D7285AF-672D-4AB4-BFED-F238863DBF2C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>222 N LaSalle</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Showing 1 to 12 of 12 entries, 17 total columns</t>
+  </si>
+  <si>
+    <t>CheckSum</t>
+  </si>
+  <si>
+    <t>Fm Savings</t>
   </si>
 </sst>
 </file>
@@ -628,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0669F9-475E-45F8-ADC2-A1AEEA696C71}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -644,20 +650,21 @@
     <col min="6" max="6" width="13.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="86.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="62.06640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.06640625" style="3"/>
+    <col min="9" max="10" width="17.73046875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="49.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="86.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="62.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -666,16 +673,18 @@
       <c r="F1" s="6"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="7"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -684,16 +693,18 @@
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -717,37 +728,43 @@
         <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -766,8 +783,10 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -792,38 +811,46 @@
       <c r="H5" s="6">
         <v>26338171</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6">
+        <f>H5+G5+F5</f>
+        <v>46675683</v>
+      </c>
+      <c r="J5" s="6">
+        <f>R5+S5+T5</f>
+        <v>2613265.358</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="6">
+      <c r="M5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="7">
+      <c r="O5" s="7">
         <v>0.06</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
+      <c r="P5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
         <v>1032975.088</v>
       </c>
-      <c r="R5" s="6">
+      <c r="T5" s="6">
         <v>1580290.27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -848,38 +875,43 @@
       <c r="H6" s="6">
         <v>24757881</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6">
+        <f>I5-H6-G6-F6</f>
+        <v>2613265</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="6">
+      <c r="M6" s="6">
         <v>2</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="7">
+      <c r="O6" s="7">
         <v>1E-3</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="P6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="6">
         <v>3121.261</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="S6" s="6">
         <v>16183.276</v>
       </c>
-      <c r="R6" s="6">
+      <c r="T6" s="6">
         <v>24757.88</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -904,38 +936,40 @@
       <c r="H7" s="6">
         <v>24733123</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="6">
+      <c r="M7" s="6">
         <v>3</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="7">
+      <c r="O7" s="7">
         <v>0.02</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="P7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
         <v>323341.86200000002</v>
       </c>
-      <c r="R7" s="6">
+      <c r="T7" s="6">
         <v>494662.46</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -960,38 +994,40 @@
       <c r="H8" s="6">
         <v>24238461</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="6">
+      <c r="M8" s="6">
         <v>4</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="7">
+      <c r="O8" s="7">
         <v>0.02</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
+      <c r="P8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
         <v>316875.02500000002</v>
       </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1016,38 +1052,40 @@
       <c r="H9" s="6">
         <v>24238461</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="6">
+      <c r="M9" s="6">
         <v>5</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="7">
+      <c r="O9" s="7">
         <v>0.01</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="P9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
         <v>155268.76199999999</v>
       </c>
-      <c r="R9" s="6">
+      <c r="T9" s="6">
         <v>242384.61</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1072,38 +1110,40 @@
       <c r="H10" s="6">
         <v>23996076</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="6">
+      <c r="M10" s="6">
         <v>6</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="7">
+      <c r="O10" s="7">
         <v>2E-3</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
+      <c r="P10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
         <v>30743.215</v>
       </c>
-      <c r="R10" s="6">
+      <c r="T10" s="6">
         <v>47992.15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1128,38 +1168,40 @@
       <c r="H11" s="6">
         <v>23948084</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="6">
+      <c r="M11" s="6">
         <v>7</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="7">
+      <c r="O11" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="P11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="6">
         <v>15590.698</v>
       </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1184,38 +1226,40 @@
       <c r="H12" s="6">
         <v>23948084</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="6">
+      <c r="M12" s="6">
         <v>8</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="7">
+      <c r="O12" s="7">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
+      <c r="P12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
         <v>7670.4319999999998</v>
       </c>
-      <c r="R12" s="6">
+      <c r="T12" s="6">
         <v>11974.04</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1240,38 +1284,40 @@
       <c r="H13" s="6">
         <v>23936110</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="6">
+      <c r="M13" s="6">
         <v>9</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="7">
+      <c r="O13" s="7">
         <v>0.02</v>
       </c>
-      <c r="N13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="P13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="6">
         <v>62050.976999999999</v>
       </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1296,38 +1342,40 @@
       <c r="H14" s="6">
         <v>23936110</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="6">
+      <c r="M14" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="N14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="7">
+      <c r="O14" s="7">
         <v>0.05</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
+      <c r="P14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
         <v>1196805.49</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1352,38 +1400,40 @@
       <c r="H15" s="6">
         <v>22739304</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="6">
+      <c r="M15" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="N15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="7">
+      <c r="O15" s="7">
         <v>0.03</v>
       </c>
-      <c r="N15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
+      <c r="P15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
         <v>459995.81400000001</v>
       </c>
-      <c r="R15" s="6">
+      <c r="T15" s="6">
         <v>682179.13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1408,34 +1458,36 @@
       <c r="H16" s="6">
         <v>22057125</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="6">
+      <c r="M16" s="6">
         <v>9.4</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="7">
+      <c r="O16" s="7">
         <v>0.02</v>
       </c>
-      <c r="N16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
+      <c r="P16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
         <v>297463.96000000002</v>
       </c>
-      <c r="R16" s="6">
+      <c r="T16" s="6">
         <v>0</v>
       </c>
     </row>

--- a/data/CheckSum.xlsx
+++ b/data/CheckSum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8610e9849f4c2023/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{C9638ABF-71D5-43C6-828B-78DC4D46C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBCB531B-2A17-4B8A-BBD8-D99174766757}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{C9638ABF-71D5-43C6-828B-78DC4D46C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DCF20AB-64F7-4838-9181-2938FC8CF0A9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{9D7285AF-672D-4AB4-BFED-F238863DBF2C}"/>
   </bookViews>
@@ -201,7 +201,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +246,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -265,11 +283,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -296,8 +379,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -634,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0669F9-475E-45F8-ADC2-A1AEEA696C71}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -649,22 +757,24 @@
     <col min="5" max="5" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.73046875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="49.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="86.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="62.06640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.06640625" style="3"/>
+    <col min="8" max="8" width="17.59765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.73046875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="49.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="86.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="42.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.1328125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -675,16 +785,17 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="6"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="7"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -695,16 +806,17 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -724,47 +836,49 @@
       <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -785,8 +899,10 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -808,49 +924,54 @@
       <c r="G5" s="6">
         <v>17216251</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
         <v>26338171</v>
       </c>
-      <c r="I5" s="6">
-        <f>H5+G5+F5</f>
+      <c r="J5" s="11">
+        <f>I5+G5+F5</f>
         <v>46675683</v>
       </c>
-      <c r="J5" s="6">
-        <f>R5+S5+T5</f>
+      <c r="K5" s="10">
+        <f>S5+T5+V5</f>
         <v>2613265.358</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <v>1</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="12">
         <v>0.06</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="6">
-        <v>0</v>
+      <c r="R5" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
         <v>1032975.088</v>
       </c>
-      <c r="T5" s="6">
+      <c r="U5" s="16">
+        <f>P5*G5</f>
+        <v>1032975.0599999999</v>
+      </c>
+      <c r="V5" s="6">
         <v>1580290.27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -872,46 +993,57 @@
       <c r="G6" s="6">
         <v>16183276</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="10">
+        <f>G5-U5</f>
+        <v>16183275.939999999</v>
+      </c>
+      <c r="I6" s="6">
         <v>24757881</v>
       </c>
-      <c r="I6" s="6">
-        <f>I5-H6-G6-F6</f>
-        <v>2613265</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="11">
+        <f>I6+G6+F6-J5</f>
+        <v>-2613265</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" ref="K6:K16" si="0">S6+T6+V6</f>
+        <v>44062.417000000001</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>2</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="12">
         <v>1E-3</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="6">
         <v>3121.261</v>
       </c>
-      <c r="S6" s="6">
+      <c r="T6" s="14">
         <v>16183.276</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="16">
+        <f>P6*G6</f>
+        <v>16183.276</v>
+      </c>
+      <c r="V6" s="6">
         <v>24757.88</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -933,43 +1065,57 @@
       <c r="G7" s="6">
         <v>16167093</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="10">
+        <f>G6-U6</f>
+        <v>16167092.723999999</v>
+      </c>
+      <c r="I7" s="6">
         <v>24733123</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J16" si="1">I7+G7+F7-J6</f>
+        <v>46631621</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="0"/>
+        <v>818004.32200000004</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>3</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="12">
         <v>0.02</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="6">
-        <v>0</v>
+      <c r="R7" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="14">
         <v>323341.86200000002</v>
       </c>
-      <c r="T7" s="6">
+      <c r="U7" s="16">
+        <f>P7*G7</f>
+        <v>323341.86</v>
+      </c>
+      <c r="V7" s="6">
         <v>494662.46</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -991,43 +1137,57 @@
       <c r="G8" s="6">
         <v>15843751</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="10">
+        <f>G7-U7</f>
+        <v>15843751.140000001</v>
+      </c>
+      <c r="I8" s="6">
         <v>24238461</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="11">
+        <f t="shared" si="1"/>
+        <v>-3431269</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="0"/>
+        <v>316875.02500000002</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <v>4</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="12">
         <v>0.02</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="6">
-        <v>0</v>
+      <c r="R8" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
         <v>316875.02500000002</v>
       </c>
-      <c r="T8" s="6">
+      <c r="U8" s="16">
+        <f>P8*G8</f>
+        <v>316875.02</v>
+      </c>
+      <c r="V8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1049,43 +1209,57 @@
       <c r="G9" s="6">
         <v>15526876</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="10">
+        <f>G8-U8</f>
+        <v>15526875.98</v>
+      </c>
+      <c r="I9" s="6">
         <v>24238461</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5" t="s">
+      <c r="J9" s="11">
+        <f t="shared" si="1"/>
+        <v>46314746</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="0"/>
+        <v>397653.37199999997</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <v>5</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="12">
         <v>0.01</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="6">
-        <v>0</v>
+      <c r="R9" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
         <v>155268.76199999999</v>
       </c>
-      <c r="T9" s="6">
+      <c r="U9" s="16">
+        <f>P9*G9</f>
+        <v>155268.76</v>
+      </c>
+      <c r="V9" s="6">
         <v>242384.61</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1107,43 +1281,57 @@
       <c r="G10" s="6">
         <v>15371607</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="10">
+        <f>G9-U9</f>
+        <v>15371607.24</v>
+      </c>
+      <c r="I10" s="6">
         <v>23996076</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="11">
+        <f t="shared" si="1"/>
+        <v>-3828923</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="0"/>
+        <v>78735.365000000005</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <v>6</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="12">
         <v>2E-3</v>
       </c>
-      <c r="P10" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R10" s="6">
-        <v>0</v>
+      <c r="R10" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
         <v>30743.215</v>
       </c>
-      <c r="T10" s="6">
+      <c r="U10" s="16">
+        <f>P10*G10</f>
+        <v>30743.214</v>
+      </c>
+      <c r="V10" s="6">
         <v>47992.15</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1165,43 +1353,51 @@
       <c r="G11" s="6">
         <v>15340864</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
         <v>23948084</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="11">
+        <f t="shared" si="1"/>
+        <v>46236011</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="0"/>
+        <v>15590.698</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <v>7</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="7">
+      <c r="P11" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P11" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="6">
         <v>15590.698</v>
       </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="17"/>
+      <c r="V11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1223,43 +1419,57 @@
       <c r="G12" s="6">
         <v>15340864</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="10">
+        <f>G11-U11</f>
+        <v>15340864</v>
+      </c>
+      <c r="I12" s="6">
         <v>23948084</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="11">
+        <f t="shared" si="1"/>
+        <v>-3844514</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="0"/>
+        <v>19644.472000000002</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <v>8</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="12">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R12" s="6">
-        <v>0</v>
+      <c r="R12" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
         <v>7670.4319999999998</v>
       </c>
-      <c r="T12" s="6">
+      <c r="U12" s="16">
+        <f>P12*G12</f>
+        <v>7670.4319999999998</v>
+      </c>
+      <c r="V12" s="6">
         <v>11974.04</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1281,43 +1491,51 @@
       <c r="G13" s="6">
         <v>15333194</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
         <v>23936110</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5" t="s">
+      <c r="J13" s="11">
+        <f t="shared" si="1"/>
+        <v>46216367</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="0"/>
+        <v>62050.976999999999</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <v>9</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="7">
+      <c r="P13" s="12">
         <v>0.02</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="6">
         <v>62050.976999999999</v>
       </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="17"/>
+      <c r="V13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1339,43 +1557,51 @@
       <c r="G14" s="6">
         <v>15333194</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
         <v>23936110</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5" t="s">
+      <c r="J14" s="11">
+        <f t="shared" si="1"/>
+        <v>-3906565</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="0"/>
+        <v>1196805.49</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="O14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="7">
+      <c r="P14" s="12">
         <v>0.05</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="6">
-        <v>0</v>
+      <c r="R14" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="S14" s="6">
         <v>0</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="17"/>
+      <c r="V14" s="6">
         <v>1196805.49</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1397,43 +1623,57 @@
       <c r="G15" s="6">
         <v>15333194</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="10">
+        <f>G14-U14</f>
+        <v>15333194</v>
+      </c>
+      <c r="I15" s="6">
         <v>22739304</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="11">
+        <f t="shared" si="1"/>
+        <v>45019561</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="0"/>
+        <v>1142174.9440000001</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="7">
+      <c r="P15" s="12">
         <v>0.03</v>
       </c>
-      <c r="P15" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R15" s="6">
-        <v>0</v>
+      <c r="R15" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
         <v>459995.81400000001</v>
       </c>
-      <c r="T15" s="6">
+      <c r="U15" s="16">
+        <f>P15*G15</f>
+        <v>459995.82</v>
+      </c>
+      <c r="V15" s="6">
         <v>682179.13</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1455,39 +1695,53 @@
       <c r="G16" s="6">
         <v>14873198</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="10">
+        <f>G15-U15</f>
+        <v>14873198.18</v>
+      </c>
+      <c r="I16" s="6">
         <v>22057125</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="11">
+        <f t="shared" si="1"/>
+        <v>-5048740</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="0"/>
+        <v>297463.96000000002</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <v>9.4</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="7">
+      <c r="P16" s="12">
         <v>0.02</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="Q16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R16" s="6">
-        <v>0</v>
+      <c r="R16" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
         <v>297463.96000000002</v>
       </c>
-      <c r="T16" s="6">
+      <c r="U16" s="16">
+        <f>P16*G16</f>
+        <v>297463.96000000002</v>
+      </c>
+      <c r="V16" s="6">
         <v>0</v>
       </c>
     </row>

--- a/data/CheckSum.xlsx
+++ b/data/CheckSum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8610e9849f4c2023/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{C9638ABF-71D5-43C6-828B-78DC4D46C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DCF20AB-64F7-4838-9181-2938FC8CF0A9}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{C9638ABF-71D5-43C6-828B-78DC4D46C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439F1850-73A1-4A1D-BAC3-904F250C3D1D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{9D7285AF-672D-4AB4-BFED-F238863DBF2C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>222 N LaSalle</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Fm Savings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ck Cooling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ck Heating </t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -352,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -385,7 +391,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -401,6 +407,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0669F9-475E-45F8-ADC2-A1AEEA696C71}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -759,22 +771,23 @@
     <col min="7" max="7" width="17.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.59765625" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.73046875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="49.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="86.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="42.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0.33203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.1328125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="18.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.06640625" style="3"/>
+    <col min="10" max="12" width="17.73046875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="49.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="86.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="42.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0.33203125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1328125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="18.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.73046875" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -786,16 +799,17 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="6"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="7"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -807,16 +821,17 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="6"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -843,42 +858,48 @@
       <c r="J3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="X3" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -901,8 +922,9 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -932,46 +954,54 @@
         <f>I5+G5+F5</f>
         <v>46675683</v>
       </c>
-      <c r="K5" s="10">
-        <f>S5+T5+V5</f>
+      <c r="K5" s="18">
+        <f>J5</f>
+        <v>46675683</v>
+      </c>
+      <c r="L5" s="10">
+        <f>T5+U5+W5</f>
         <v>2613265.358</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>1</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="12">
+      <c r="Q5" s="12">
         <v>0.06</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="R5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="13">
+      <c r="S5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="13">
         <v>1032975.088</v>
       </c>
-      <c r="U5" s="16">
-        <f>P5*G5</f>
+      <c r="V5" s="16">
+        <f t="shared" ref="V5:V10" si="0">Q5*G5</f>
         <v>1032975.0599999999</v>
       </c>
-      <c r="V5" s="6">
+      <c r="W5" s="13">
         <v>1580290.27</v>
       </c>
+      <c r="X5" s="16">
+        <f>Q5*I5</f>
+        <v>1580290.26</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -994,56 +1024,64 @@
         <v>16183276</v>
       </c>
       <c r="H6" s="10">
-        <f>G5-U5</f>
+        <f>G5-V5</f>
         <v>16183275.939999999</v>
       </c>
       <c r="I6" s="6">
         <v>24757881</v>
       </c>
       <c r="J6" s="11">
-        <f>I6+G6+F6-J5</f>
-        <v>-2613265</v>
-      </c>
-      <c r="K6" s="10">
-        <f t="shared" ref="K6:K16" si="0">S6+T6+V6</f>
+        <f>J5-I6+G6+F6</f>
+        <v>41222339</v>
+      </c>
+      <c r="K6" s="19">
+        <f>K5-L5</f>
+        <v>44062417.641999997</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" ref="L6:L16" si="1">T6+U6+W6</f>
         <v>44062.417000000001</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>2</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="12">
+      <c r="Q6" s="12">
         <v>1E-3</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="R6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="6">
         <v>3121.261</v>
       </c>
-      <c r="T6" s="14">
+      <c r="U6" s="14">
         <v>16183.276</v>
       </c>
-      <c r="U6" s="16">
-        <f>P6*G6</f>
+      <c r="V6" s="16">
+        <f t="shared" si="0"/>
         <v>16183.276</v>
       </c>
-      <c r="V6" s="6">
+      <c r="W6" s="14">
         <v>24757.88</v>
       </c>
+      <c r="X6" s="16">
+        <f t="shared" ref="X6:X15" si="2">Q6*I6</f>
+        <v>24757.881000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1066,56 +1104,64 @@
         <v>16167093</v>
       </c>
       <c r="H7" s="10">
-        <f>G6-U6</f>
+        <f>G6-V6</f>
         <v>16167092.723999999</v>
       </c>
       <c r="I7" s="6">
         <v>24733123</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" ref="J7:J16" si="1">I7+G7+F7-J6</f>
-        <v>46631621</v>
-      </c>
-      <c r="K7" s="10">
+        <f t="shared" ref="J7:J16" si="3">J6-I7+G7+F7</f>
+        <v>35774449</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" ref="K7:K15" si="4">K6-L6</f>
+        <v>44018355.224999994</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="1"/>
+        <v>818004.32200000004</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <v>323341.86200000002</v>
+      </c>
+      <c r="V7" s="16">
         <f t="shared" si="0"/>
-        <v>818004.32200000004</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="6">
-        <v>3</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-      <c r="T7" s="14">
-        <v>323341.86200000002</v>
-      </c>
-      <c r="U7" s="16">
-        <f>P7*G7</f>
         <v>323341.86</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="14">
         <v>494662.46</v>
       </c>
+      <c r="X7" s="16">
+        <f t="shared" si="2"/>
+        <v>494662.46</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1138,56 +1184,61 @@
         <v>15843751</v>
       </c>
       <c r="H8" s="10">
-        <f>G7-U7</f>
+        <f>G7-V7</f>
         <v>15843751.140000001</v>
       </c>
       <c r="I8" s="6">
         <v>24238461</v>
       </c>
       <c r="J8" s="11">
+        <f t="shared" si="3"/>
+        <v>30497879</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="4"/>
+        <v>43200350.902999997</v>
+      </c>
+      <c r="L8" s="10">
         <f t="shared" si="1"/>
-        <v>-3431269</v>
-      </c>
-      <c r="K8" s="10">
+        <v>316875.02500000002</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="6">
+        <v>4</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <v>316875.02500000002</v>
+      </c>
+      <c r="V8" s="16">
         <f t="shared" si="0"/>
-        <v>316875.02500000002</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6">
-        <v>4</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="14">
-        <v>316875.02500000002</v>
-      </c>
-      <c r="U8" s="16">
-        <f>P8*G8</f>
         <v>316875.02</v>
       </c>
-      <c r="V8" s="6">
-        <v>0</v>
-      </c>
+      <c r="W8" s="14">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16"/>
     </row>
-    <row r="9" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1210,56 +1261,64 @@
         <v>15526876</v>
       </c>
       <c r="H9" s="10">
-        <f>G8-U8</f>
+        <f>G8-V8</f>
         <v>15526875.98</v>
       </c>
       <c r="I9" s="6">
         <v>24238461</v>
       </c>
       <c r="J9" s="11">
+        <f t="shared" si="3"/>
+        <v>24904434</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="4"/>
+        <v>42883475.877999999</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="1"/>
-        <v>46314746</v>
-      </c>
-      <c r="K9" s="10">
+        <v>397653.37199999997</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="6">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <v>155268.76199999999</v>
+      </c>
+      <c r="V9" s="16">
         <f t="shared" si="0"/>
-        <v>397653.37199999997</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="6">
-        <v>5</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" s="6">
-        <v>0</v>
-      </c>
-      <c r="T9" s="14">
-        <v>155268.76199999999</v>
-      </c>
-      <c r="U9" s="16">
-        <f>P9*G9</f>
         <v>155268.76</v>
       </c>
-      <c r="V9" s="6">
+      <c r="W9" s="14">
         <v>242384.61</v>
       </c>
+      <c r="X9" s="16">
+        <f t="shared" si="2"/>
+        <v>242384.61000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1282,56 +1341,64 @@
         <v>15371607</v>
       </c>
       <c r="H10" s="10">
-        <f>G9-U9</f>
+        <f>G9-V9</f>
         <v>15371607.24</v>
       </c>
       <c r="I10" s="6">
         <v>23996076</v>
       </c>
       <c r="J10" s="11">
+        <f t="shared" si="3"/>
+        <v>19398105</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="4"/>
+        <v>42485822.505999997</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="1"/>
-        <v>-3828923</v>
-      </c>
-      <c r="K10" s="10">
+        <v>78735.365000000005</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="6">
+        <v>6</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>30743.215</v>
+      </c>
+      <c r="V10" s="16">
         <f t="shared" si="0"/>
-        <v>78735.365000000005</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="6">
-        <v>6</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S10" s="6">
-        <v>0</v>
-      </c>
-      <c r="T10" s="14">
-        <v>30743.215</v>
-      </c>
-      <c r="U10" s="16">
-        <f>P10*G10</f>
         <v>30743.214</v>
       </c>
-      <c r="V10" s="6">
+      <c r="W10" s="14">
         <v>47992.15</v>
       </c>
+      <c r="X10" s="16">
+        <f t="shared" si="2"/>
+        <v>47992.152000000002</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1358,46 +1425,51 @@
         <v>23948084</v>
       </c>
       <c r="J11" s="11">
+        <f t="shared" si="3"/>
+        <v>13909025</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="4"/>
+        <v>42407087.140999995</v>
+      </c>
+      <c r="L11" s="10">
         <f t="shared" si="1"/>
-        <v>46236011</v>
-      </c>
-      <c r="K11" s="10">
-        <f t="shared" si="0"/>
         <v>15590.698</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>7</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="12">
+      <c r="Q11" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="R11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="6">
         <v>15590.698</v>
       </c>
-      <c r="T11" s="14">
-        <v>0</v>
-      </c>
-      <c r="U11" s="17"/>
-      <c r="V11" s="6">
-        <v>0</v>
-      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="14">
+        <v>0</v>
+      </c>
+      <c r="X11" s="16"/>
     </row>
-    <row r="12" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1420,56 +1492,64 @@
         <v>15340864</v>
       </c>
       <c r="H12" s="10">
-        <f>G11-U11</f>
+        <f>G11-V11</f>
         <v>15340864</v>
       </c>
       <c r="I12" s="6">
         <v>23948084</v>
       </c>
       <c r="J12" s="11">
+        <f t="shared" si="3"/>
+        <v>8404354</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="4"/>
+        <v>42391496.442999996</v>
+      </c>
+      <c r="L12" s="10">
         <f t="shared" si="1"/>
-        <v>-3844514</v>
-      </c>
-      <c r="K12" s="10">
-        <f t="shared" si="0"/>
         <v>19644.472000000002</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>8</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="12">
+      <c r="Q12" s="12">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="R12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="14">
+      <c r="S12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
         <v>7670.4319999999998</v>
       </c>
-      <c r="U12" s="16">
-        <f>P12*G12</f>
+      <c r="V12" s="16">
+        <f>Q12*G12</f>
         <v>7670.4319999999998</v>
       </c>
-      <c r="V12" s="6">
+      <c r="W12" s="14">
         <v>11974.04</v>
       </c>
+      <c r="X12" s="16">
+        <f t="shared" si="2"/>
+        <v>11974.041999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1496,46 +1576,51 @@
         <v>23936110</v>
       </c>
       <c r="J13" s="11">
+        <f t="shared" si="3"/>
+        <v>2903987</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="4"/>
+        <v>42371851.970999993</v>
+      </c>
+      <c r="L13" s="10">
         <f t="shared" si="1"/>
-        <v>46216367</v>
-      </c>
-      <c r="K13" s="10">
-        <f t="shared" si="0"/>
         <v>62050.976999999999</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="N13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <v>9</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="12">
+      <c r="Q13" s="12">
         <v>0.02</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="R13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="6">
         <v>62050.976999999999</v>
       </c>
-      <c r="T13" s="14">
-        <v>0</v>
-      </c>
-      <c r="U13" s="17"/>
-      <c r="V13" s="6">
-        <v>0</v>
-      </c>
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16"/>
     </row>
-    <row r="14" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1562,46 +1647,54 @@
         <v>23936110</v>
       </c>
       <c r="J14" s="11">
+        <f t="shared" si="3"/>
+        <v>-2658431</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="4"/>
+        <v>42309800.993999995</v>
+      </c>
+      <c r="L14" s="10">
         <f t="shared" si="1"/>
-        <v>-3906565</v>
-      </c>
-      <c r="K14" s="10">
-        <f t="shared" si="0"/>
         <v>1196805.49</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="N14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="12">
+      <c r="Q14" s="12">
         <v>0.05</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="R14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14" s="14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="17"/>
-      <c r="V14" s="6">
+      <c r="S14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="14">
         <v>1196805.49</v>
       </c>
+      <c r="X14" s="16">
+        <f t="shared" si="2"/>
+        <v>1196805.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1624,56 +1717,64 @@
         <v>15333194</v>
       </c>
       <c r="H15" s="10">
-        <f>G14-U14</f>
+        <f>G14-V14</f>
         <v>15333194</v>
       </c>
       <c r="I15" s="6">
         <v>22739304</v>
       </c>
       <c r="J15" s="11">
+        <f t="shared" si="3"/>
+        <v>-7024043</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="4"/>
+        <v>41112995.503999993</v>
+      </c>
+      <c r="L15" s="10">
         <f t="shared" si="1"/>
-        <v>45019561</v>
-      </c>
-      <c r="K15" s="10">
-        <f t="shared" si="0"/>
         <v>1142174.9440000001</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="N15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="P15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="12">
+      <c r="Q15" s="12">
         <v>0.03</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="R15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
+      <c r="S15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
         <v>459995.81400000001</v>
       </c>
-      <c r="U15" s="16">
-        <f>P15*G15</f>
+      <c r="V15" s="16">
+        <f>Q15*G15</f>
         <v>459995.82</v>
       </c>
-      <c r="V15" s="6">
+      <c r="W15" s="14">
         <v>682179.13</v>
       </c>
+      <c r="X15" s="16">
+        <f t="shared" si="2"/>
+        <v>682179.12</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:24" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1696,54 +1797,59 @@
         <v>14873198</v>
       </c>
       <c r="H16" s="10">
-        <f>G15-U15</f>
+        <f>G15-V15</f>
         <v>14873198.18</v>
       </c>
       <c r="I16" s="6">
         <v>22057125</v>
       </c>
       <c r="J16" s="11">
+        <f t="shared" si="3"/>
+        <v>-11167472</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" ref="K7:K16" si="5">K15-J16</f>
+        <v>52280467.503999993</v>
+      </c>
+      <c r="L16" s="10">
         <f t="shared" si="1"/>
-        <v>-5048740</v>
-      </c>
-      <c r="K16" s="10">
-        <f t="shared" si="0"/>
         <v>297463.96000000002</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <v>9.4</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="P16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="12">
+      <c r="Q16" s="12">
         <v>0.02</v>
       </c>
-      <c r="Q16" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="R16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16" s="15">
+      <c r="S16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
         <v>297463.96000000002</v>
       </c>
-      <c r="U16" s="16">
-        <f>P16*G16</f>
+      <c r="V16" s="16">
+        <f>Q16*G16</f>
         <v>297463.96000000002</v>
       </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:1" ht="121.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9" t="s">
